--- a/IMP-FILES/Recepie Secrets.xlsx
+++ b/IMP-FILES/Recepie Secrets.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patel\Desktop\Backup FEB-24-2024 PERSONAL DATA\kshudha\IMP-FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03807207-8E5F-43DF-B711-3E86AB6DADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B051AE75-FD41-4186-96F4-41B5D1795EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bhazi-Masala" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -179,9 +180,6 @@
     <t xml:space="preserve">कसूरी मेथी </t>
   </si>
   <si>
-    <t>Dry Methi</t>
-  </si>
-  <si>
     <t>1/4</t>
   </si>
   <si>
@@ -215,9 +213,6 @@
     <t>2 sticks</t>
   </si>
   <si>
-    <t>25 leaf</t>
-  </si>
-  <si>
     <t>0.5 tsp</t>
   </si>
   <si>
@@ -228,13 +223,112 @@
   </si>
   <si>
     <t>5 tsp</t>
+  </si>
+  <si>
+    <t>Puff</t>
+  </si>
+  <si>
+    <t>Pakora</t>
+  </si>
+  <si>
+    <t>Full Tray</t>
+  </si>
+  <si>
+    <t>Dhokla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full tray </t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 cup </t>
+  </si>
+  <si>
+    <t>Bateka Vada</t>
+  </si>
+  <si>
+    <t>Full tray</t>
+  </si>
+  <si>
+    <t>.25 cup</t>
+  </si>
+  <si>
+    <t>1/4 Cup Coriander Seeds</t>
+  </si>
+  <si>
+    <t>3 tsp Cumin Seeds</t>
+  </si>
+  <si>
+    <t>1 tsp Fennel Seeds</t>
+  </si>
+  <si>
+    <t>2 Bay Leaf</t>
+  </si>
+  <si>
+    <t>1 Cinnamon Stick</t>
+  </si>
+  <si>
+    <t>3 Star Anise</t>
+  </si>
+  <si>
+    <t>7-8 Cloves</t>
+  </si>
+  <si>
+    <t>1 tsp Pepper Corns</t>
+  </si>
+  <si>
+    <t>1 Black Cardamom</t>
+  </si>
+  <si>
+    <t>1 tsp Fenugreek Seeds</t>
+  </si>
+  <si>
+    <t>7-8 Dry Red Chillies</t>
+  </si>
+  <si>
+    <t>1 tbsp Dry Fenugreek Leaves</t>
+  </si>
+  <si>
+    <t>1/2 tsp Turmeric Powder</t>
+  </si>
+  <si>
+    <t>1 tsp Dry Mango Powder</t>
+  </si>
+  <si>
+    <t>1 tsp Dry Ginger Powder</t>
+  </si>
+  <si>
+    <t>1 tsp Black Salt</t>
+  </si>
+  <si>
+    <t>1 tsp Red Chilly Powder</t>
+  </si>
+  <si>
+    <t>Dry Fenugreek Leaves</t>
+  </si>
+  <si>
+    <t>Fenugreek Seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मेथी </t>
+  </si>
+  <si>
+    <t>20 leaf</t>
+  </si>
+  <si>
+    <t>2tsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,10 +345,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Bookman Old Style"/>
+      <sz val="16"/>
+      <name val="Century"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -299,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -325,13 +423,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,19 +713,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,152 +737,179 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6">
         <f>5*1.5</f>
         <v>7.5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="11">
         <f>(D2 / SUM(D2:D25)  ) *E26</f>
-        <v>18.9873417721519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18.115942028985508</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6">
         <f>10*2</f>
         <v>20</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <f>(D3 / SUM(D2:D26)  ) *E26</f>
-        <v>50.632911392405063</v>
+        <v>48.309178743961354</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="6">
         <f>20 * 2.5</f>
         <v>50</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <f>(D4 / SUM(D2:D26)  ) *E26</f>
-        <v>126.58227848101266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120.77294685990337</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6">
         <f xml:space="preserve"> 5 *2.5</f>
         <v>12.5</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <f>(D5 / SUM(D2:D26)  ) *E26</f>
-        <v>31.645569620253166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30.193236714975843</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6">
         <f>2 *1.5</f>
         <v>3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <f>(D6 / SUM(D2:D26)  ) *E26</f>
-        <v>7.5949367088607591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.2463768115942031</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6">
         <f>6*2.5</f>
         <v>15</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <f>(D7 / SUM(D2:D26)  ) *E26</f>
-        <v>37.974683544303801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36.231884057971016</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="6">
         <v>15</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <f>(D8 / SUM(D2:D26)  ) *E26</f>
-        <v>37.974683544303801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36.231884057971016</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2">
@@ -791,206 +918,234 @@
       <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <f>(D9 / SUM(D2:D26)  ) *E26</f>
-        <v>25.316455696202532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24.154589371980677</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6">
-        <f>25 * 0.2</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="9">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11">
         <f>(D10 / SUM(D2:D26)  ) *E26</f>
-        <v>12.658227848101266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9.6618357487922708</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6">
         <f>10*0.2</f>
         <v>2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <f>(D11 / SUM(D2:D26)  ) *E26</f>
-        <v>5.0632911392405067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.8309178743961354</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6">
         <f>1 *2.5</f>
         <v>2.5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <f>(D12 / SUM(D2:D26)  ) *E26</f>
-        <v>6.3291139240506329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.0386473429951693</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="6">
         <f xml:space="preserve"> 10 * 1.5</f>
         <v>15</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <f>(D13 / SUM(D2:D26)  ) *E26</f>
-        <v>37.974683544303801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36.231884057971016</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6">
         <f xml:space="preserve"> 10 *0.3</f>
         <v>3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <f>(D14 / SUM(D2:D26)  ) *E26</f>
-        <v>7.5949367088607591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.2463768115942031</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6">
         <f>0.5 * 3</f>
         <v>1.5</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <f>(D15 / SUM(D2:D26)  ) *E26</f>
-        <v>3.7974683544303796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.6231884057971016</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6">
-        <f>0.5 * 5</f>
-        <v>2.5</v>
-      </c>
-      <c r="E16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11">
         <f>(D16 / SUM(D2:D26)  ) *E26</f>
-        <v>6.3291139240506329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12.077294685990339</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="6">
         <f xml:space="preserve"> 2 *2.5</f>
         <v>5</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="11">
         <f>(D17 / SUM(D2:D26)  ) *E26</f>
-        <v>12.658227848101266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12.077294685990339</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6">
         <f xml:space="preserve"> 6 *2.5</f>
         <v>15</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="11">
         <f>(D18 / SUM(D2:D26)  ) *E26</f>
-        <v>37.974683544303801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36.231884057971016</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="6">
         <f xml:space="preserve"> 2 *2.5</f>
         <v>5</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="11">
         <f>(D19 / SUM(D2:D26)  ) *E26</f>
-        <v>12.658227848101266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12.077294685990339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1000,86 +1155,92 @@
         <f>0.5 * 2</f>
         <v>1</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="11">
         <f>(D20 / SUM(D2:D26)  ) *E26</f>
-        <v>2.5316455696202533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.4154589371980677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6">
         <f xml:space="preserve"> 0.25 * 4</f>
         <v>1</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="11">
         <f>(D21 / SUM(D2:D26)  ) *E26</f>
-        <v>2.5316455696202533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.4154589371980677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6">
         <f xml:space="preserve"> 4 *1.5</f>
         <v>6</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="11">
         <f>(D22 / SUM(D2:D26)  ) *E26</f>
-        <v>15.189873417721518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+        <v>14.492753623188406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
+        <v>8</v>
+      </c>
+      <c r="E23" s="11">
         <f>(D23 / SUM(D2:D26)  ) *E26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19.323671497584542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="11">
         <f>(D24 / SUM(D2:D26)  ) *E26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6">
         <v>0</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="11">
         <f>(D25 / SUM(D2:D26)  ) *E26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -1088,10 +1249,77 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="10">
+        <v>49</v>
+      </c>
+      <c r="E26" s="12">
         <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F34A9-EA03-4586-91D2-58B93420795B}">
+  <dimension ref="C5:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="10">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
